--- a/biology/Médecine/Développement_prénatal/Développement_prénatal.xlsx
+++ b/biology/Médecine/Développement_prénatal/Développement_prénatal.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>D%C3%A9veloppement_pr%C3%A9natal</t>
+          <t>Développement_prénatal</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,13 +490,15 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le développement prénatal (ou développement anténatal) est l'ensemble des processus biologiques allant de la fécondation jusqu'à la naissance, durant lequel l'individu se développe.
 Le développement prénatal se divise en deux à trois périodes : 
 la période germinale
 la période embryonnaire
-chez certains taxons existe une période post-embryonnaire appelée période fœtale[1]
+chez certains taxons existe une période post-embryonnaire appelée période fœtale
 L'individu,  produit de la conception, est respectivement appelé durant ces périodes préembryon[réf. nécessaire], embryon puis fœtus.
 </t>
         </is>
